--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2201622.997921395</v>
+        <v>2159799.216252389</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584666</v>
+        <v>460545.8926584665</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7257951.94121077</v>
+        <v>7257951.941210771</v>
       </c>
     </row>
     <row r="11">
@@ -676,7 +676,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="W2" t="n">
-        <v>200.160833108852</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>84.75179106303119</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.9768674197207</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.5171288722966</v>
+        <v>90.99360837528201</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>109.6461487858241</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>220.6450016938488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>196.5224065022248</v>
+        <v>16.34203434292468</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>89.71287907890073</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>138.8805478738722</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1460,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>33.6852048571419</v>
       </c>
       <c r="G12" t="n">
         <v>136.6941370086349</v>
@@ -1511,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>206.3937038454577</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.04271061073112</v>
+        <v>103.9357482121867</v>
       </c>
     </row>
     <row r="14">
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
@@ -1627,7 +1627,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>75.08933905549303</v>
       </c>
       <c r="X14" t="n">
-        <v>120.0205082795406</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>7.176779257663802</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1706,7 +1706,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>28.13786146382106</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.93334314034952</v>
+        <v>1.986805923040912</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>353.4014975208323</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>303.0090314087148</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1940,10 +1940,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>61.61837957888187</v>
       </c>
       <c r="X18" t="n">
-        <v>0.3390749617170013</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>115.1165353722833</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>268.9755074231831</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>377.5219838394073</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>78.10609042402638</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,10 +2165,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>27.40777827085461</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2177,10 +2177,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>147.6938511001826</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2283,25 +2283,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>48.02391253490439</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>16.60419956430029</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>388.9701345428942</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>184.3260936702577</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>94.06259899123577</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>182.1392758451339</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>136.2566308880122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>23.64313353319057</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>64.92969799429851</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>185.4590370615473</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2639,13 +2639,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>35.39908632027053</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.6941370086349</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>15.60609219526648</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>239.2028073555512</v>
       </c>
       <c r="V28" t="n">
-        <v>136.1664131224705</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>93.35037972526851</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>348.8803294193014</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,16 +2879,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>45.59910121103272</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -2930,10 +2930,10 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>121.4165796131833</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.78261652699481</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>43.0321874990911</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>118.9253750775954</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>239.1564019759209</v>
       </c>
     </row>
     <row r="33">
@@ -3113,19 +3113,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>35.39908632027053</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571426</v>
@@ -3164,7 +3164,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>68.59265420870024</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>43.0321874990911</v>
       </c>
       <c r="V34" t="n">
-        <v>116.1611518470178</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>68.93005717780981</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>324.9872312306336</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,22 +3350,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>133.1680123252102</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>59.15194878046334</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>214.1067157869813</v>
+        <v>156.6932352543221</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>107.5210832536986</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>223.4549920062422</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>95.96847091072856</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
@@ -3602,7 +3602,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>61.12808787351305</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.8986597023843</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>24.67393912661073</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>30.35504114510524</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>120.030362705047</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>25.75441435659135</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3824,13 +3824,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>87.08036771626205</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.6941370086349</v>
@@ -3839,7 +3839,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S42" t="n">
-        <v>89.18211739820566</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
@@ -3878,7 +3878,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4.812045700447321</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>8.232734672475443</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>125.1320680988946</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>188.7768642208068</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>27.36667690766462</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4076,7 +4076,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>43.26585203414595</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>37.43186964989046</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4354,19 +4354,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>499.3853800778592</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="W2" t="n">
         <v>297.2027203719481</v>
@@ -4375,7 +4375,7 @@
         <v>297.2027203719481</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>817.1412885554689</v>
+        <v>105.643145523636</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>105.643145523636</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>105.643145523636</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>105.643145523636</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>105.643145523636</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>105.643145523636</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>105.643145523636</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4421,40 +4421,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>817.1412885554689</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>817.1412885554689</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y3" t="n">
-        <v>817.1412885554689</v>
+        <v>273.858482543704</v>
       </c>
     </row>
     <row r="4">
@@ -4470,22 +4470,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>278.1872303756613</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>278.1872303756613</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
-        <v>278.1872303756613</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>278.1872303756613</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>509.4769954460863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>509.4769954460863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>509.4769954460863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460863</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>703.9290827579601</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>197.3253049269343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>197.3253049269343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>197.3253049269343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>872.1444197780281</v>
       </c>
     </row>
     <row r="7">
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>497.7346397818405</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C8" t="n">
-        <v>497.7346397818405</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D8" t="n">
-        <v>254.2858631377404</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E8" t="n">
-        <v>254.2858631377404</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F8" t="n">
         <v>247.340362388537</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y8" t="n">
-        <v>497.7346397818405</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>398.1570697793896</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>425.5489231905453</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>425.5489231905453</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>774.1327055644115</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>566.3724067994576</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1771.415377244381</v>
+        <v>1385.398567379559</v>
       </c>
       <c r="C11" t="n">
-        <v>1402.452860303969</v>
+        <v>1016.436050439147</v>
       </c>
       <c r="D11" t="n">
-        <v>1044.187161697218</v>
+        <v>1016.436050439147</v>
       </c>
       <c r="E11" t="n">
-        <v>1044.187161697218</v>
+        <v>1016.436050439147</v>
       </c>
       <c r="F11" t="n">
-        <v>633.201256907611</v>
+        <v>605.4501456495395</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>187.1783781324244</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>187.1783781324244</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5068,25 +5068,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2161.554709220192</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U11" t="n">
-        <v>2161.554709220192</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V11" t="n">
-        <v>2161.554709220192</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W11" t="n">
-        <v>2161.554709220192</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="X11" t="n">
-        <v>2161.554709220192</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="Y11" t="n">
-        <v>1771.415377244381</v>
+        <v>1771.99840744368</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>667.8916329505314</v>
+        <v>876.3701216833169</v>
       </c>
       <c r="C12" t="n">
-        <v>667.8916329505314</v>
+        <v>701.91709240219</v>
       </c>
       <c r="D12" t="n">
-        <v>518.9572232892801</v>
+        <v>552.9826827409387</v>
       </c>
       <c r="E12" t="n">
-        <v>359.7197682838247</v>
+        <v>393.7452277354832</v>
       </c>
       <c r="F12" t="n">
         <v>359.7197682838247</v>
@@ -5123,22 +5123,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5159,13 +5159,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W12" t="n">
-        <v>1251.718768941086</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="X12" t="n">
-        <v>1043.867268735553</v>
+        <v>1252.345757468339</v>
       </c>
       <c r="Y12" t="n">
-        <v>836.1069699705995</v>
+        <v>1044.585458703385</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>375.0094993717216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>375.0094993717216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>375.0094993717216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>375.0094993717216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>375.0094993717216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
         <v>46.89499644164432</v>
@@ -5220,31 +5220,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>412.4263787765005</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U13" t="n">
-        <v>412.4263787765005</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V13" t="n">
-        <v>412.4263787765005</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W13" t="n">
-        <v>412.4263787765005</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X13" t="n">
-        <v>412.4263787765005</v>
+        <v>151.8806006963783</v>
       </c>
       <c r="Y13" t="n">
-        <v>375.0094993717216</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1319.119653254809</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="C14" t="n">
-        <v>1319.119653254809</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="D14" t="n">
-        <v>960.8539546480588</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="E14" t="n">
-        <v>960.8539546480588</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2161.554709220192</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>2161.554709220192</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V14" t="n">
-        <v>1830.491821876622</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W14" t="n">
-        <v>1830.491821876622</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="X14" t="n">
-        <v>1709.258985230621</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="Y14" t="n">
-        <v>1319.119653254809</v>
+        <v>1206.501278074326</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>790.3481019751835</v>
+        <v>821.6754629010848</v>
       </c>
       <c r="C15" t="n">
-        <v>615.8950726940565</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D15" t="n">
-        <v>466.9606630328052</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E15" t="n">
-        <v>466.9606630328052</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F15" t="n">
-        <v>320.4261050596901</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G15" t="n">
-        <v>182.3512191923822</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
-        <v>75.31707872833226</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5387,22 +5387,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V15" t="n">
-        <v>1460.197257673872</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W15" t="n">
-        <v>1205.95990094567</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X15" t="n">
-        <v>998.1084007401373</v>
+        <v>1197.651098686107</v>
       </c>
       <c r="Y15" t="n">
-        <v>790.3481019751835</v>
+        <v>989.8907999211528</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.89499644164432</v>
+        <v>384.9691196230418</v>
       </c>
       <c r="C16" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D16" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E16" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F16" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G16" t="n">
         <v>46.89499644164432</v>
@@ -5457,31 +5457,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>338.8858918600055</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>84.20140365411859</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>84.20140365411859</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>84.20140365411859</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.20140365411859</v>
+        <v>386.9759942927801</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1365.978944809839</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C17" t="n">
-        <v>1365.978944809839</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="D17" t="n">
-        <v>1365.978944809839</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="E17" t="n">
-        <v>980.1906922115948</v>
+        <v>1182.222397444039</v>
       </c>
       <c r="F17" t="n">
-        <v>569.2047874219872</v>
+        <v>771.236492654431</v>
       </c>
       <c r="G17" t="n">
-        <v>212.2335778049849</v>
+        <v>352.9647251373158</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U17" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V17" t="n">
-        <v>1756.118276785651</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W17" t="n">
-        <v>1756.118276785651</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X17" t="n">
-        <v>1756.118276785651</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y17" t="n">
-        <v>1365.978944809839</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>829.641765199318</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C18" t="n">
-        <v>655.188735918191</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D18" t="n">
-        <v>506.2543262569397</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5597,22 +5597,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5633,13 +5633,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.61740098434</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y18" t="n">
-        <v>997.857102219386</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="19">
@@ -5697,19 +5697,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>491.4892447774382</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>274.7934182835589</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W19" t="n">
         <v>46.89499644164432</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1245.115185688779</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="C20" t="n">
-        <v>876.152668748367</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="D20" t="n">
-        <v>876.152668748367</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E20" t="n">
-        <v>876.152668748367</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F20" t="n">
-        <v>465.1667639587595</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H20" t="n">
         <v>46.89499644164432</v>
@@ -5752,16 +5752,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5779,25 +5779,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2270.376276991246</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>2016.589854876113</v>
+        <v>1788.30336392845</v>
       </c>
       <c r="V20" t="n">
-        <v>2016.589854876113</v>
+        <v>1457.240476584879</v>
       </c>
       <c r="W20" t="n">
-        <v>2016.589854876113</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="X20" t="n">
-        <v>2016.589854876113</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="Y20" t="n">
-        <v>1626.450522900301</v>
+        <v>1104.471821314765</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>680.7073555380667</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C21" t="n">
-        <v>506.2543262569397</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D21" t="n">
-        <v>506.2543262569397</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5849,34 +5849,34 @@
         <v>2042.280991189052</v>
       </c>
       <c r="P21" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y21" t="n">
-        <v>848.9226925581347</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="22">
@@ -5931,22 +5931,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>350.0884872080407</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>301.5794846475312</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>301.5794846475312</v>
+        <v>590.9966546844918</v>
       </c>
       <c r="V22" t="n">
-        <v>46.89499644164432</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W22" t="n">
         <v>46.89499644164432</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1121.297556972598</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C23" t="n">
-        <v>1121.297556972598</v>
+        <v>825.5823748407918</v>
       </c>
       <c r="D23" t="n">
-        <v>763.0318583658473</v>
+        <v>825.5823748407918</v>
       </c>
       <c r="E23" t="n">
-        <v>377.243605767603</v>
+        <v>439.7941222425475</v>
       </c>
       <c r="F23" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G23" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
         <v>46.89499644164432</v>
@@ -6013,28 +6013,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T23" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U23" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V23" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.62486235271</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X23" t="n">
-        <v>1511.436888948409</v>
+        <v>1971.284063821137</v>
       </c>
       <c r="Y23" t="n">
-        <v>1121.297556972598</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>814.129334229901</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>639.676304948774</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D24" t="n">
-        <v>490.7418952875228</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E24" t="n">
-        <v>331.5044402820673</v>
+        <v>288.4422806685329</v>
       </c>
       <c r="F24" t="n">
-        <v>184.9698823089523</v>
+        <v>141.9077226954178</v>
       </c>
       <c r="G24" t="n">
         <v>46.89499644164432</v>
@@ -6071,13 +6071,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M24" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N24" t="n">
         <v>1486.172378671464</v>
@@ -6113,7 +6113,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>814.129334229901</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>184.527956934586</v>
+        <v>355.9881985305668</v>
       </c>
       <c r="C25" t="n">
-        <v>184.527956934586</v>
+        <v>355.9881985305668</v>
       </c>
       <c r="D25" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H25" t="n">
         <v>46.89499644164432</v>
@@ -6168,31 +6168,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>184.527956934586</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U25" t="n">
-        <v>184.527956934586</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V25" t="n">
-        <v>184.527956934586</v>
+        <v>355.9881985305668</v>
       </c>
       <c r="W25" t="n">
-        <v>184.527956934586</v>
+        <v>355.9881985305668</v>
       </c>
       <c r="X25" t="n">
-        <v>184.527956934586</v>
+        <v>355.9881985305668</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.527956934586</v>
+        <v>355.9881985305668</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>688.8050361241869</v>
+        <v>961.4555726570361</v>
       </c>
       <c r="C26" t="n">
-        <v>688.8050361241869</v>
+        <v>592.4930557166244</v>
       </c>
       <c r="D26" t="n">
-        <v>688.8050361241869</v>
+        <v>234.2273571098739</v>
       </c>
       <c r="E26" t="n">
-        <v>623.2194825945925</v>
+        <v>234.2273571098739</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2335778049849</v>
+        <v>234.2273571098739</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2335778049849</v>
+        <v>234.2273571098739</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>1796.607095507691</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V26" t="n">
-        <v>1465.54420816412</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="W26" t="n">
-        <v>1465.54420816412</v>
+        <v>1738.19474469697</v>
       </c>
       <c r="X26" t="n">
-        <v>1465.54420816412</v>
+        <v>1738.19474469697</v>
       </c>
       <c r="Y26" t="n">
-        <v>1075.404876188309</v>
+        <v>1348.055412721158</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>829.8930637200692</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>655.4400344389422</v>
       </c>
       <c r="D27" t="n">
-        <v>411.9230828252303</v>
+        <v>506.505624777691</v>
       </c>
       <c r="E27" t="n">
-        <v>252.6856278197748</v>
+        <v>347.2681697722355</v>
       </c>
       <c r="F27" t="n">
-        <v>252.6856278197748</v>
+        <v>200.7336117991204</v>
       </c>
       <c r="G27" t="n">
-        <v>114.6107419524668</v>
+        <v>62.65872593181248</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>62.65872593181248</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
         <v>1486.172378671464</v>
@@ -6350,7 +6350,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>998.1084007401373</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.89499644164432</v>
+        <v>366.1495761074706</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>366.1495761074706</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G28" t="n">
         <v>46.89499644164432</v>
@@ -6405,31 +6405,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>412.4263787765005</v>
+        <v>366.1495761074706</v>
       </c>
       <c r="V28" t="n">
-        <v>274.8845473396617</v>
+        <v>366.1495761074706</v>
       </c>
       <c r="W28" t="n">
-        <v>274.8845473396617</v>
+        <v>366.1495761074706</v>
       </c>
       <c r="X28" t="n">
-        <v>46.89499644164432</v>
+        <v>366.1495761074706</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.89499644164432</v>
+        <v>366.1495761074706</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>826.8434181716636</v>
+        <v>1440.93552010011</v>
       </c>
       <c r="C29" t="n">
-        <v>457.8809012312519</v>
+        <v>1346.642207246303</v>
       </c>
       <c r="D29" t="n">
-        <v>457.8809012312519</v>
+        <v>1346.642207246303</v>
       </c>
       <c r="E29" t="n">
-        <v>457.8809012312519</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F29" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275673</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>2270.376276991246</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U29" t="n">
-        <v>2270.376276991246</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V29" t="n">
-        <v>1939.313389647675</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="W29" t="n">
-        <v>1586.909016496865</v>
+        <v>1440.93552010011</v>
       </c>
       <c r="X29" t="n">
-        <v>1213.443258235785</v>
+        <v>1440.93552010011</v>
       </c>
       <c r="Y29" t="n">
-        <v>1213.443258235785</v>
+        <v>1440.93552010011</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E30" t="n">
-        <v>252.6856278197748</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
         <v>114.6107419524668</v>
@@ -6545,22 +6545,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6578,16 +6578,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>362.7211268674616</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
         <v>46.89499644164432</v>
@@ -6645,28 +6645,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>453.4106385108907</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="U31" t="n">
-        <v>453.4106385108907</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="V31" t="n">
-        <v>453.4106385108907</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="W31" t="n">
-        <v>453.4106385108907</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X31" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y31" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1332.758312262428</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="C32" t="n">
-        <v>963.7957953220168</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="D32" t="n">
-        <v>963.7957953220168</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E32" t="n">
-        <v>578.0075427237725</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F32" t="n">
-        <v>167.021637934165</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G32" t="n">
-        <v>167.021637934165</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6721,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
         <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T32" t="n">
-        <v>2270.376276991246</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U32" t="n">
-        <v>2016.589854876113</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V32" t="n">
-        <v>1685.526967532543</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="W32" t="n">
-        <v>1332.758312262428</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="X32" t="n">
-        <v>1332.758312262428</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="Y32" t="n">
-        <v>1332.758312262428</v>
+        <v>1371.839859437666</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>447.6797356739884</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>288.4422806685329</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>288.4422806685329</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>150.3673948012249</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
         <v>114.6107419524668</v>
@@ -6785,10 +6785,10 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
         <v>1486.172378671464</v>
@@ -6812,19 +6812,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1854.24432094974</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1619.092212717997</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="34">
@@ -6882,22 +6882,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R34" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>164.2294932568138</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="V34" t="n">
-        <v>46.89499644164432</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X34" t="n">
         <v>46.89499644164432</v>
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1041.491250111708</v>
+        <v>903.7556012807972</v>
       </c>
       <c r="C35" t="n">
-        <v>1041.491250111708</v>
+        <v>534.7930843403856</v>
       </c>
       <c r="D35" t="n">
-        <v>1041.491250111708</v>
+        <v>534.7930843403856</v>
       </c>
       <c r="E35" t="n">
-        <v>1041.491250111708</v>
+        <v>534.7930843403856</v>
       </c>
       <c r="F35" t="n">
-        <v>630.5053453221001</v>
+        <v>534.7930843403856</v>
       </c>
       <c r="G35" t="n">
-        <v>212.2335778049849</v>
+        <v>116.5213168232704</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>116.5213168232704</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U35" t="n">
-        <v>2090.963399967084</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V35" t="n">
-        <v>1759.900512623513</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.900512623513</v>
+        <v>1663.821199605999</v>
       </c>
       <c r="X35" t="n">
-        <v>1431.630582087519</v>
+        <v>1290.355441344919</v>
       </c>
       <c r="Y35" t="n">
-        <v>1041.491250111708</v>
+        <v>1290.355441344919</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.1327649551154</v>
+        <v>821.6754629010848</v>
       </c>
       <c r="C36" t="n">
-        <v>447.6797356739884</v>
+        <v>647.2224336199578</v>
       </c>
       <c r="D36" t="n">
-        <v>447.6797356739884</v>
+        <v>498.2880239587065</v>
       </c>
       <c r="E36" t="n">
-        <v>288.4422806685329</v>
+        <v>498.2880239587065</v>
       </c>
       <c r="F36" t="n">
-        <v>153.9291369056942</v>
+        <v>351.7534659855914</v>
       </c>
       <c r="G36" t="n">
-        <v>153.9291369056942</v>
+        <v>213.6785801182835</v>
       </c>
       <c r="H36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.6444396542336</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7022,19 +7022,19 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7046,22 +7046,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401373</v>
+        <v>1197.651098686107</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.3481019751835</v>
+        <v>989.8907999211528</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.3180182963936</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="C37" t="n">
-        <v>102.3180182963936</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3180182963936</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
@@ -7128,19 +7128,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>318.5874281822333</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W37" t="n">
-        <v>318.5874281822333</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="X37" t="n">
-        <v>102.3180182963936</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.3180182963936</v>
+        <v>194.8080900240374</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>960.8539546480588</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="C38" t="n">
-        <v>960.8539546480588</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="D38" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E38" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F38" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G38" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376119</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2161.554709220192</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>2161.554709220192</v>
+        <v>2161.76912218953</v>
       </c>
       <c r="U38" t="n">
-        <v>1907.76828710506</v>
+        <v>2161.76912218953</v>
       </c>
       <c r="V38" t="n">
-        <v>1576.705399761489</v>
+        <v>1830.706234845959</v>
       </c>
       <c r="W38" t="n">
-        <v>1350.993286623871</v>
+        <v>1477.937579575845</v>
       </c>
       <c r="X38" t="n">
-        <v>1350.993286623871</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="Y38" t="n">
-        <v>960.8539546480588</v>
+        <v>1104.471821314765</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>693.4102525704071</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C39" t="n">
-        <v>518.9572232892801</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D39" t="n">
-        <v>518.9572232892801</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E39" t="n">
-        <v>359.7197682838247</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7280,25 +7280,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2093.295585216358</v>
+        <v>366.1495761074706</v>
       </c>
       <c r="C40" t="n">
-        <v>1924.359402288451</v>
+        <v>366.1495761074706</v>
       </c>
       <c r="D40" t="n">
-        <v>1924.359402288451</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E40" t="n">
-        <v>1924.359402288451</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F40" t="n">
-        <v>1924.359402288451</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G40" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>2344.749822082216</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T40" t="n">
-        <v>2344.749822082216</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U40" t="n">
-        <v>2344.749822082216</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="V40" t="n">
-        <v>2344.749822082216</v>
+        <v>366.1495761074706</v>
       </c>
       <c r="W40" t="n">
-        <v>2344.749822082216</v>
+        <v>366.1495761074706</v>
       </c>
       <c r="X40" t="n">
-        <v>2314.088164359888</v>
+        <v>366.1495761074706</v>
       </c>
       <c r="Y40" t="n">
-        <v>2093.295585216358</v>
+        <v>366.1495761074706</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>911.5447040713552</v>
+        <v>884.2746489770059</v>
       </c>
       <c r="C41" t="n">
-        <v>542.5821871309436</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="D41" t="n">
-        <v>542.5821871309436</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E41" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F41" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G41" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376119</v>
@@ -7435,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T41" t="n">
-        <v>2050.393517622824</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U41" t="n">
-        <v>2024.378957666671</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V41" t="n">
-        <v>2024.378957666671</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W41" t="n">
-        <v>1671.610302396557</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="X41" t="n">
-        <v>1298.144544135477</v>
+        <v>884.2746489770059</v>
       </c>
       <c r="Y41" t="n">
-        <v>1298.144544135477</v>
+        <v>884.2746489770059</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F42" t="n">
         <v>359.7197682838247</v>
@@ -7490,52 +7490,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L42" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1640.568559592726</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2254.666875215342</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2055.124177269372</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>1826.94371292353</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1933.992884499886</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="C43" t="n">
-        <v>1933.992884499886</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="D43" t="n">
-        <v>1783.87624508755</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="E43" t="n">
-        <v>1783.87624508755</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="F43" t="n">
-        <v>1783.87624508755</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="G43" t="n">
-        <v>1783.87624508755</v>
+        <v>210.7322113409051</v>
       </c>
       <c r="H43" t="n">
-        <v>1783.87624508755</v>
+        <v>51.75564866431839</v>
       </c>
       <c r="I43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V43" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W43" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X43" t="n">
-        <v>2336.433928473655</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y43" t="n">
-        <v>2115.641349330125</v>
+        <v>379.8701515943957</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.1984047608</v>
+        <v>1364.701464388593</v>
       </c>
       <c r="C44" t="n">
-        <v>1498.235887820388</v>
+        <v>1364.701464388593</v>
       </c>
       <c r="D44" t="n">
-        <v>1498.235887820388</v>
+        <v>1364.701464388593</v>
       </c>
       <c r="E44" t="n">
-        <v>1371.839859437666</v>
+        <v>978.9132117903487</v>
       </c>
       <c r="F44" t="n">
-        <v>960.8539546480588</v>
+        <v>567.9273070007412</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U44" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V44" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W44" t="n">
-        <v>1867.1984047608</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="X44" t="n">
-        <v>1867.1984047608</v>
+        <v>1751.301304452715</v>
       </c>
       <c r="Y44" t="n">
-        <v>1867.1984047608</v>
+        <v>1751.301304452715</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>857.284873186858</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C45" t="n">
-        <v>682.831843905731</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D45" t="n">
-        <v>533.8974342444798</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E45" t="n">
         <v>506.2543262569397</v>
@@ -7730,13 +7730,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
         <v>1486.172378671464</v>
@@ -7751,28 +7751,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2284.306083296871</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V45" t="n">
-        <v>1695.349365905614</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W45" t="n">
-        <v>1441.112009177413</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X45" t="n">
-        <v>1233.26050897188</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y45" t="n">
-        <v>1025.500210206926</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1931.789338669943</v>
+        <v>90.597877284216</v>
       </c>
       <c r="C46" t="n">
-        <v>1931.789338669943</v>
+        <v>90.597877284216</v>
       </c>
       <c r="D46" t="n">
-        <v>1931.789338669943</v>
+        <v>90.597877284216</v>
       </c>
       <c r="E46" t="n">
-        <v>1783.87624508755</v>
+        <v>90.597877284216</v>
       </c>
       <c r="F46" t="n">
-        <v>1783.87624508755</v>
+        <v>90.597877284216</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2190.391887156797</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2190.391887156797</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>2152.581917813473</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>2152.581917813473</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V46" t="n">
-        <v>2152.581917813473</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W46" t="n">
-        <v>2152.581917813473</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X46" t="n">
-        <v>2152.581917813473</v>
+        <v>90.597877284216</v>
       </c>
       <c r="Y46" t="n">
-        <v>1931.789338669943</v>
+        <v>90.597877284216</v>
       </c>
     </row>
   </sheetData>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>162.5070303356325</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392488</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10193,7 +10193,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>108.5094987082738</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>154.2790145108656</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>307.2673352605755</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.800181262745</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11381,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>154.2790145108655</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>324.3761707630432</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.80464767583493</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2485578939812</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>111.384007536242</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>45.30127931546193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
         <v>139.0783256288916</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>181.5419427413637</v>
+        <v>114.6489051399081</v>
       </c>
     </row>
     <row r="14">
@@ -23500,13 +23500,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>274.15162966192</v>
       </c>
       <c r="X14" t="n">
-        <v>249.7105923989285</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>165.5317197306519</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.9007265918932</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.8986370415878</v>
+        <v>177.8451742588964</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>157.3867970498209</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23706,13 +23706,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>60.6875523211117</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>24.03609182398429</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
         <v>217.7829317747374</v>
@@ -23791,7 +23791,7 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23873,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>190.0766035820377</v>
       </c>
       <c r="X18" t="n">
-        <v>205.4339102417605</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>37.69782020388202</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.21185782407332</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>173.1424674699548</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,10 +24053,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>57.98884467712179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>177.595525088591</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>269.6851342372358</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>17.90591119881725</v>
       </c>
       <c r="G23" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
@@ -24268,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>185.4050070082114</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>42.63153801739909</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>23.54341993217045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>12.35884213020012</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>139.0783256288916</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
         <v>214.5288682289405</v>
@@ -24423,7 +24423,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>228.4945097906374</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>317.0006720779633</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>141.5860861711518</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24527,13 +24527,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>112.0459792443682</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24542,7 +24542,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>51.43249586044778</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>157.3867970498209</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
         <v>214.5288682289405</v>
@@ -24657,16 +24657,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>47.0865264459849</v>
       </c>
       <c r="V28" t="n">
-        <v>115.9712302013575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>271.922512045739</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.3606392981116073</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24767,16 +24767,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>112.0459792443682</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24818,10 +24818,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>111.384007536242</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.04936365494248</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.4465608509556</v>
@@ -24885,13 +24885,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>182.5872501244043</v>
       </c>
       <c r="U31" t="n">
         <v>286.2893338015361</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>208.1197481551037</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>147.0815366801327</v>
       </c>
     </row>
     <row r="33">
@@ -25001,19 +25001,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>70.5647127391389</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>157.3060054936841</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
         <v>214.5288682289405</v>
@@ -25131,16 +25131,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>243.2571463024451</v>
       </c>
       <c r="V34" t="n">
-        <v>135.9764914768102</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>94.75513837189736</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>44.74386944783544</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25238,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>11.90120006817364</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>7.886639275250914</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25335,7 +25335,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>11.60293960205587</v>
+        <v>69.01642013471505</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>110.2618485210389</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>125.7859767111708</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>70.56471273913878</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>98.49313167493716</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25599,7 +25599,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.6194376234954</v>
@@ -25608,16 +25608,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>227.4637041972173</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>195.3546142439319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>245.2425290659605</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>225.4941435373898</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25712,13 +25712,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>70.5647127391389</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>70.43910215024454</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>134.2662799284442</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25839,7 +25839,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2893338015361</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>217.4769207165617</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>256.7983019733672</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>225.3121856211372</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>130.2784035477363</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>5.910500182201289</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>124.1807088168097</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J46" t="n">
         <v>54.86879163620181</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>188.1875679736049</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>555017.0690103285</v>
+        <v>555017.0690103283</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>555017.0690103284</v>
+        <v>555017.0690103283</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>555017.0690103283</v>
+        <v>555017.0690103284</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>555017.0690103286</v>
+        <v>555017.0690103285</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>555017.0690103285</v>
+        <v>555017.0690103284</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>555017.0690103285</v>
+        <v>555017.0690103283</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>555017.0690103285</v>
+        <v>555017.0690103284</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>555017.0690103285</v>
+        <v>555017.0690103286</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>396564.1496463229</v>
+        <v>396564.149646323</v>
       </c>
       <c r="F2" t="n">
-        <v>396564.1496463229</v>
+        <v>396564.1496463231</v>
       </c>
       <c r="G2" t="n">
-        <v>396564.1496463229</v>
+        <v>396564.149646323</v>
       </c>
       <c r="H2" t="n">
         <v>396564.1496463229</v>
       </c>
       <c r="I2" t="n">
-        <v>396564.149646323</v>
+        <v>396564.1496463229</v>
       </c>
       <c r="J2" t="n">
-        <v>396564.149646323</v>
+        <v>396564.1496463229</v>
       </c>
       <c r="K2" t="n">
-        <v>396564.1496463229</v>
+        <v>396564.1496463231</v>
       </c>
       <c r="L2" t="n">
         <v>396564.1496463231</v>
       </c>
       <c r="M2" t="n">
-        <v>396564.149646323</v>
+        <v>396564.1496463231</v>
       </c>
       <c r="N2" t="n">
-        <v>396564.149646323</v>
+        <v>396564.1496463231</v>
       </c>
       <c r="O2" t="n">
-        <v>396564.149646323</v>
+        <v>396564.1496463232</v>
       </c>
       <c r="P2" t="n">
-        <v>396564.1496463229</v>
+        <v>396564.1496463231</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007587</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26456,10 +26456,10 @@
         <v>26710.01986761898</v>
       </c>
       <c r="O4" t="n">
+        <v>26710.01986761897</v>
+      </c>
+      <c r="P4" t="n">
         <v>26710.01986761898</v>
-      </c>
-      <c r="P4" t="n">
-        <v>26710.01986761897</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>182502.8312558244</v>
+        <v>182502.8312558245</v>
       </c>
       <c r="C6" t="n">
-        <v>263272.2627873719</v>
+        <v>263272.2627873722</v>
       </c>
       <c r="D6" t="n">
         <v>263272.2627873722</v>
       </c>
       <c r="E6" t="n">
-        <v>-17979.93512569527</v>
+        <v>-25287.17438409153</v>
       </c>
       <c r="F6" t="n">
-        <v>327632.4076532574</v>
+        <v>320325.1683948612</v>
       </c>
       <c r="G6" t="n">
-        <v>327632.4076532574</v>
+        <v>320325.1683948612</v>
       </c>
       <c r="H6" t="n">
-        <v>327632.4076532574</v>
+        <v>320325.1683948611</v>
       </c>
       <c r="I6" t="n">
-        <v>327632.4076532575</v>
+        <v>320325.168394861</v>
       </c>
       <c r="J6" t="n">
-        <v>264572.4650541513</v>
+        <v>257265.2257957549</v>
       </c>
       <c r="K6" t="n">
-        <v>327632.4076532574</v>
+        <v>320325.1683948612</v>
       </c>
       <c r="L6" t="n">
-        <v>327632.4076532575</v>
+        <v>320325.1683948612</v>
       </c>
       <c r="M6" t="n">
-        <v>241613.8738331815</v>
+        <v>234306.6345747854</v>
       </c>
       <c r="N6" t="n">
-        <v>327632.4076532575</v>
+        <v>320325.1683948612</v>
       </c>
       <c r="O6" t="n">
-        <v>327632.4076532575</v>
+        <v>320325.1683948614</v>
       </c>
       <c r="P6" t="n">
-        <v>327632.4076532574</v>
+        <v>320325.1683948612</v>
       </c>
     </row>
   </sheetData>
@@ -26776,10 +26776,10 @@
         <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="P3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
     </row>
     <row r="4">
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428944</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>259.542103988905</v>
       </c>
       <c r="W2" t="n">
-        <v>149.0801356085611</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.644841788383886</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>106.248274875304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>108.7876855495171</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27560,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.7569742437599</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>273.8529271457276</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,10 +27636,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.16556690500781</v>
+        <v>114.6890874020224</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>297.2298969558873</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.5929369622048</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27949,13 +27949,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>9.250578701252635</v>
+        <v>189.4309508605528</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -34128,7 +34128,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I41" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J41" t="n">
         <v>103.0102241525006</v>
@@ -34149,22 +34149,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P41" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R41" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S41" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T41" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H42" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I42" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J42" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K42" t="n">
         <v>104.8606541711232</v>
@@ -34219,25 +34219,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N42" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O42" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P42" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R42" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S42" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T42" t="n">
         <v>2.617457728311981</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H43" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I43" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J43" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L43" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M43" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N43" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O43" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P43" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R43" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S43" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T43" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I44" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J44" t="n">
         <v>103.0102241525006</v>
@@ -34386,22 +34386,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P44" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q44" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R44" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S44" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T44" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H45" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I45" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J45" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K45" t="n">
         <v>104.8606541711232</v>
@@ -34456,25 +34456,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M45" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N45" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O45" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P45" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q45" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R45" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S45" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T45" t="n">
         <v>2.617457728311981</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H46" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I46" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J46" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K46" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L46" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M46" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N46" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O46" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P46" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R46" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S46" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T46" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35491,13 +35491,13 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
@@ -35509,7 +35509,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35743,10 +35743,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
         <v>516.8936174628016</v>
@@ -35983,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
-        <v>152.5357508595472</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36448,7 +36448,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584968</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36685,7 +36685,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>75.52871390503797</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36931,7 +36931,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M33" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
@@ -37390,7 +37390,7 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
-        <v>373.2840556651353</v>
+        <v>309.7110456222515</v>
       </c>
       <c r="M36" t="n">
         <v>488.1091505729034</v>
@@ -37399,13 +37399,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37633,7 +37633,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
@@ -37642,7 +37642,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M41" t="n">
         <v>432.2802359107712</v>
@@ -37794,13 +37794,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P41" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037669</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37870,16 +37870,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P42" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L43" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M43" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N43" t="n">
         <v>127.4430518046842</v>
@@ -37955,7 +37955,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P43" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M44" t="n">
         <v>432.2802359107712</v>
@@ -38031,13 +38031,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O44" t="n">
-        <v>355.1946887874302</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P44" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L45" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M45" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O45" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P45" t="n">
         <v>308.4914891638518</v>
@@ -38177,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L46" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M46" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N46" t="n">
         <v>127.4430518046842</v>
@@ -38192,7 +38192,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P46" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
